--- a/CustomerData/netlist_TestToolbox.xlsx
+++ b/CustomerData/netlist_TestToolbox.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB144FB-6D4F-49AC-B7F9-A26FA905FEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BCD4D-8F45-4EF0-BC8F-8949D7295742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45495" yWindow="4515" windowWidth="14400" windowHeight="7380" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId2"/>
     <sheet name="Device" sheetId="3" r:id="rId3"/>
     <sheet name="Simulation" sheetId="4" r:id="rId4"/>
+    <sheet name="NetworkLine IEEE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +172,10 @@
   </si>
   <si>
     <t>DirectFeedthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +724,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -925,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1114,4 +1119,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB1CE4-FD9D-4206-85C7-6D084AEDBCAD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CustomerData/netlist_TestToolbox.xlsx
+++ b/CustomerData/netlist_TestToolbox.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BCD4D-8F45-4EF0-BC8F-8949D7295742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504DE3FE-D121-41C8-BAD9-80F0FEC38961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45495" yWindow="4515" windowWidth="14400" windowHeight="7380" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
-    <sheet name="NetworkLine" sheetId="2" r:id="rId2"/>
-    <sheet name="Device" sheetId="3" r:id="rId3"/>
-    <sheet name="Simulation" sheetId="4" r:id="rId4"/>
+    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" sheetId="4" r:id="rId3"/>
+    <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="NetworkLine IEEE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,7 +175,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enable</t>
+    <t>Turns Ratio (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -720,213 +744,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F10">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F11">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1047,12 +864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1096,7 +913,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1112,6 +929,243 @@
       </c>
       <c r="F4" s="2">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.75</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.05</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1123,22 +1177,151 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB1CE4-FD9D-4206-85C7-6D084AEDBCAD}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+      <c r="G6">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F7">
+        <v>0.35</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F8">
+        <v>0.35</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F9">
+        <v>0.05</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CustomerData/netlist_TestToolbox.xlsx
+++ b/CustomerData/netlist_TestToolbox.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504DE3FE-D121-41C8-BAD9-80F0FEC38961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0C10D-F891-4B2B-90FD-FCB39292EA9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="Device" sheetId="3" r:id="rId2"/>
     <sheet name="Simulation" sheetId="4" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
-    <sheet name="NetworkLine IEEE" sheetId="5" r:id="rId5"/>
+    <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
+    <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +120,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0, Synchronous Generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, PLL-Controlled VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Notes:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,7 +136,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For each bus, only one device can be connected.</t>
+    <t>type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The branches can be listed in arbitrary order.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,30 +152,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet shows the summarizes of devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The buses and corresponding devices CAN be listed below in arbitrary order.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>The bus 1 HAVE TO be the slack bus, i.e., type-1 bus.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Discretization Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simulation Settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Samping frequency (Hz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fundamental Frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linearization Times</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,31 +180,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10-19, Grid-Following VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29, Grid-Forming VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, Droop-Controlled VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zbranch = R+wL+1/(wC+G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10, Synchronous Generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the parameters are left to blank, the default paramters will be used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGi and QGi are in generator convention. PLi and QLi are in load convention.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For active device (SG, VSI, etc), please use PGI and QGi. For load, please use PLi and QLi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> highlighted devices are not available currently.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For adding passive load, please use PLi and QLi in the "PowerFlow" sheet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, Floating Bus (Open Circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self branch HAS TO be GC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90, Infinite Bus (Short Circuit in Small-Signal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutual branch HAS TO be RL.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wL (pu) = 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H (pu) = 3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D (pu) = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R (pu) = 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdc (pu) = 2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdc (pu) = 1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth PLL (Hz) = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth idq (Hz) = 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth vdc (Hz) = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For each bus, at least ONE and only ONE device can be connected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the devices connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes other settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All self branch HAT TO be set, even with a very small value of G.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added between FromBus and Zbranch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Turns Ratio (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio</t>
+    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Form with Default Values:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_SimulinkModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotPole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotAdmittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheets summaries advanced settings for the toolbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Enable, 2-Disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Initial step, 2-Every step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-With virtual damping resistor, 2-Without virtual damping resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Yes, 2-No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Power (VA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Voltage (V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +451,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,13 +489,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,181 +779,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>-1</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>-1</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.5</v>
       </c>
-      <c r="F7">
+      <c r="F12">
         <v>-0.2</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-1</v>
       </c>
-      <c r="J7">
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
@@ -745,115 +991,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.86328125" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.06640625" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" customWidth="1"/>
+    <col min="8" max="8" width="22.265625" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
         <f>3.5/10</f>
         <v>0.35</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B27">
         <v>10</v>
       </c>
     </row>
@@ -866,69 +1255,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="20.73046875" customWidth="1"/>
-    <col min="6" max="6" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="3" max="3" width="14.9296875" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="B3" s="1">
         <v>40000</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -940,231 +1320,266 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F8">
-        <v>0.6</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F9">
-        <v>0.6</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F10">
-        <v>0.75</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="G10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F11">
+      <c r="F18">
         <v>0.05</v>
       </c>
-      <c r="G11">
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
@@ -1176,112 +1591,74 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB1CE4-FD9D-4206-85C7-6D084AEDBCAD}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="1">
-        <f>(0.00001)/2</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F6">
-        <v>0.25</v>
-      </c>
-      <c r="G6">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="1">
-        <f>(0.00001)/2</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F7">
-        <v>0.35</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0.01</v>
@@ -1294,18 +1671,18 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>3</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
       </c>
       <c r="C9">
         <v>0.01</v>
@@ -1318,14 +1695,170 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="F9">
+        <v>0.35</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F10">
+        <v>0.35</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F11">
         <v>0.05</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CustomerData/netlist_TestToolbox.xlsx
+++ b/CustomerData/netlist_TestToolbox.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0C10D-F891-4B2B-90FD-FCB39292EA9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5DED46-5B87-4B33-8C71-254442A88E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="Device" sheetId="3" r:id="rId2"/>
-    <sheet name="Simulation" sheetId="4" r:id="rId3"/>
+    <sheet name="Basic" sheetId="4" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
     <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
@@ -993,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
